--- a/app/Licenciatura_em_Biologia_e_Saude.xlsx
+++ b/app/Licenciatura_em_Biologia_e_Saude.xlsx
@@ -12,41 +12,35 @@
     <sheet name="20150555" sheetId="2" r:id="rId5"/>
     <sheet name="20150547" sheetId="3" r:id="rId6"/>
     <sheet name="20150552" sheetId="4" r:id="rId7"/>
-    <sheet name="20154388" sheetId="5" r:id="rId8"/>
-    <sheet name="20150551" sheetId="6" r:id="rId9"/>
-    <sheet name="20154830" sheetId="7" r:id="rId10"/>
-    <sheet name="20150554" sheetId="8" r:id="rId11"/>
-    <sheet name="20150545" sheetId="9" r:id="rId12"/>
-    <sheet name="20150561" sheetId="10" r:id="rId13"/>
-    <sheet name="20150556" sheetId="11" r:id="rId14"/>
-    <sheet name="20150550" sheetId="12" r:id="rId15"/>
-    <sheet name="20150573" sheetId="13" r:id="rId16"/>
-    <sheet name="20154813" sheetId="14" r:id="rId17"/>
-    <sheet name="20150569" sheetId="15" r:id="rId18"/>
-    <sheet name="20150568" sheetId="16" r:id="rId19"/>
-    <sheet name="20150564" sheetId="17" r:id="rId20"/>
-    <sheet name="20150572" sheetId="18" r:id="rId21"/>
-    <sheet name="20154385" sheetId="19" r:id="rId22"/>
-    <sheet name="20150544" sheetId="20" r:id="rId23"/>
-    <sheet name="20150557" sheetId="21" r:id="rId24"/>
-    <sheet name="20150563" sheetId="22" r:id="rId25"/>
-    <sheet name="20150562" sheetId="23" r:id="rId26"/>
-    <sheet name="20150558" sheetId="24" r:id="rId27"/>
-    <sheet name="20150566" sheetId="25" r:id="rId28"/>
-    <sheet name="20150567" sheetId="26" r:id="rId29"/>
-    <sheet name="20150549" sheetId="27" r:id="rId30"/>
-    <sheet name="20150560" sheetId="28" r:id="rId31"/>
-    <sheet name="20150559" sheetId="29" r:id="rId32"/>
-    <sheet name="20154812" sheetId="30" r:id="rId33"/>
-    <sheet name="20150546" sheetId="31" r:id="rId34"/>
-    <sheet name="20150565" sheetId="32" r:id="rId35"/>
-    <sheet name="20150570" sheetId="33" r:id="rId36"/>
-    <sheet name="20154819" sheetId="34" r:id="rId37"/>
-    <sheet name="20150548" sheetId="35" r:id="rId38"/>
-    <sheet name="20150553" sheetId="36" r:id="rId39"/>
-    <sheet name="20150571" sheetId="37" r:id="rId40"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet3" sheetId="39" r:id="rId42"/>
+    <sheet name="20150551" sheetId="5" r:id="rId8"/>
+    <sheet name="20150554" sheetId="6" r:id="rId9"/>
+    <sheet name="20150545" sheetId="7" r:id="rId10"/>
+    <sheet name="20150561" sheetId="8" r:id="rId11"/>
+    <sheet name="20150556" sheetId="9" r:id="rId12"/>
+    <sheet name="20150550" sheetId="10" r:id="rId13"/>
+    <sheet name="20150573" sheetId="11" r:id="rId14"/>
+    <sheet name="20150569" sheetId="12" r:id="rId15"/>
+    <sheet name="20150568" sheetId="13" r:id="rId16"/>
+    <sheet name="20150564" sheetId="14" r:id="rId17"/>
+    <sheet name="20150572" sheetId="15" r:id="rId18"/>
+    <sheet name="20150544" sheetId="16" r:id="rId19"/>
+    <sheet name="20150557" sheetId="17" r:id="rId20"/>
+    <sheet name="20150563" sheetId="18" r:id="rId21"/>
+    <sheet name="20150562" sheetId="19" r:id="rId22"/>
+    <sheet name="20150558" sheetId="20" r:id="rId23"/>
+    <sheet name="20150566" sheetId="21" r:id="rId24"/>
+    <sheet name="20150567" sheetId="22" r:id="rId25"/>
+    <sheet name="20150549" sheetId="23" r:id="rId26"/>
+    <sheet name="20150560" sheetId="24" r:id="rId27"/>
+    <sheet name="20150559" sheetId="25" r:id="rId28"/>
+    <sheet name="20150546" sheetId="26" r:id="rId29"/>
+    <sheet name="20150565" sheetId="27" r:id="rId30"/>
+    <sheet name="20150570" sheetId="28" r:id="rId31"/>
+    <sheet name="20150548" sheetId="29" r:id="rId32"/>
+    <sheet name="20150553" sheetId="30" r:id="rId33"/>
+    <sheet name="20150571" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -54,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -203,9 +197,6 @@
     <t>Elisa Antonio Simbine</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>Lucia Nazare</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -278,48 +266,36 @@
     <t>Outra - Prov Maputo</t>
   </si>
   <si>
+    <t>Rendicao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Manuel Jaz </t>
+  </si>
+  <si>
+    <t>1995-03-11</t>
+  </si>
+  <si>
+    <t>Manuel Jaz Rendicao</t>
+  </si>
+  <si>
+    <t>Laurinda Passe</t>
+  </si>
+  <si>
+    <t>060902773370I</t>
+  </si>
+  <si>
+    <t>+258823837948</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Laulane</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
     <t>Samuel</t>
   </si>
   <si>
-    <t>Ivete Benicio</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Rendicao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Manuel Jaz </t>
-  </si>
-  <si>
-    <t>1995-03-11</t>
-  </si>
-  <si>
-    <t>Manuel Jaz Rendicao</t>
-  </si>
-  <si>
-    <t>Laurinda Passe</t>
-  </si>
-  <si>
-    <t>060902773370I</t>
-  </si>
-  <si>
-    <t>+258823837948</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Laulane</t>
-  </si>
-  <si>
-    <t>Pene</t>
-  </si>
-  <si>
-    <t>Erika Maira Rubens</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
     <t>1997-01-24</t>
   </si>
   <si>
@@ -377,9 +353,6 @@
     <t>Amelia Abilio Manjate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101087616F</t>
   </si>
   <si>
@@ -422,9 +395,6 @@
     <t>Zaida Maria Sultanegy</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110102278866P</t>
   </si>
   <si>
@@ -446,9 +416,6 @@
     <t xml:space="preserve">Beatriz AntÓnio Ribeiro  </t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>110302086196M</t>
   </si>
   <si>
@@ -458,12 +425,6 @@
     <t>Escola Secundaria Samora Machel</t>
   </si>
   <si>
-    <t>Mazive</t>
-  </si>
-  <si>
-    <t>Melanie Elísio</t>
-  </si>
-  <si>
     <t>Mavie</t>
   </si>
   <si>
@@ -503,9 +464,6 @@
     <t>Serafina JÚlio Bila</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>090100744348A</t>
   </si>
   <si>
@@ -527,9 +485,6 @@
     <t xml:space="preserve">Lucrencia MÁrio Matavel </t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>100501194589A</t>
   </si>
   <si>
@@ -551,9 +506,6 @@
     <t xml:space="preserve">Virgina Alberto Sango </t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100704390B</t>
   </si>
   <si>
@@ -563,12 +515,6 @@
     <t>Outra - Prov Zambezia</t>
   </si>
   <si>
-    <t>Mandlate</t>
-  </si>
-  <si>
-    <t>Olga Joaquim Pedro</t>
-  </si>
-  <si>
     <t>Machado</t>
   </si>
   <si>
@@ -626,9 +572,6 @@
     <t>Celmira Marta Paco</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070104353278J</t>
   </si>
   <si>
@@ -719,9 +662,6 @@
     <t>Charifa Antochi</t>
   </si>
   <si>
-    <t>Distrito de Mogovolas</t>
-  </si>
-  <si>
     <t>+258878934638</t>
   </si>
   <si>
@@ -743,9 +683,6 @@
     <t>Eliza Roque Jambo</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060700878316I</t>
   </si>
   <si>
@@ -770,9 +707,6 @@
     <t>Catarina Valige A. Tarrua</t>
   </si>
   <si>
-    <t>Distrito de Ribáuè</t>
-  </si>
-  <si>
     <t>+258846639663</t>
   </si>
   <si>
@@ -800,12 +734,6 @@
     <t>+258846140636</t>
   </si>
   <si>
-    <t>Chiziane</t>
-  </si>
-  <si>
-    <t>Quita João</t>
-  </si>
-  <si>
     <t>Chilengue</t>
   </si>
   <si>
@@ -866,9 +794,6 @@
     <t>Vanuza Almeira Ricardo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110100503235A</t>
   </si>
   <si>
@@ -878,12 +803,6 @@
     <t>Escola Josina Machel</t>
   </si>
   <si>
-    <t>Cassamo</t>
-  </si>
-  <si>
-    <t>Nayyar Ismael</t>
-  </si>
-  <si>
     <t>Bombi</t>
   </si>
   <si>
@@ -939,9 +858,6 @@
   </si>
   <si>
     <t>Fina Dinis</t>
-  </si>
-  <si>
-    <t>Distrito de Gondola</t>
   </si>
   <si>
     <t>060301992076B</t>
@@ -2186,7 +2102,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150561</v>
+        <v>20150550</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2210,7 +2126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2226,7 +2142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2242,7 +2158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2258,7 +2174,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2274,7 +2190,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2289,9 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2299,7 +2213,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2310,7 +2224,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2319,7 +2233,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2331,7 +2245,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2339,7 +2253,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2435,7 +2349,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2462,7 +2376,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2478,7 +2392,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2781,7 +2695,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150556</v>
+        <v>20150573</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2805,7 +2719,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2821,7 +2735,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2837,7 +2751,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2853,7 +2767,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2869,7 +2783,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2884,9 +2798,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2894,7 +2806,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2905,7 +2817,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2914,7 +2826,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2926,15 +2838,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>388811</v>
+      <c r="H17" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3030,7 +2942,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3057,7 +2969,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3073,7 +2985,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3376,7 +3288,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150550</v>
+        <v>20150569</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3400,7 +3312,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3416,7 +3328,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3432,7 +3344,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3448,7 +3360,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3464,7 +3376,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3479,9 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3489,7 +3399,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3500,7 +3410,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3509,7 +3419,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3521,15 +3431,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>123</v>
+      <c r="H17" s="20">
+        <v>565202</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3625,7 +3535,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3652,7 +3562,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3668,7 +3578,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3971,7 +3881,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150573</v>
+        <v>20150568</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3995,7 +3905,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4011,7 +3921,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4027,7 +3937,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4043,7 +3953,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4059,7 +3969,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4074,9 +3984,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4084,7 +3992,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4095,7 +4003,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4104,7 +4012,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4116,7 +4024,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4124,7 +4032,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4220,7 +4128,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4247,7 +4155,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4263,7 +4171,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4514,7 +4422,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4564,7 +4474,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154813</v>
+        <v>20150564</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4588,7 +4498,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4604,7 +4514,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4619,7 +4529,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -4633,7 +4545,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -4647,7 +4561,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4668,7 +4584,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -4677,14 +4595,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -4694,13 +4616,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4795,7 +4721,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4821,7 +4747,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4835,7 +4763,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5137,7 +5067,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150569</v>
+        <v>20150572</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5161,7 +5091,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5177,7 +5107,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5193,7 +5123,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5209,7 +5139,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5225,7 +5155,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5240,9 +5170,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5250,7 +5178,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5261,7 +5189,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5270,7 +5198,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5282,15 +5210,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>565202</v>
+      <c r="H17" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5386,7 +5314,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5413,7 +5341,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5429,7 +5357,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5732,7 +5660,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150568</v>
+        <v>20150544</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5756,7 +5684,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5772,7 +5700,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5788,7 +5716,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5804,7 +5732,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5819,9 +5747,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5835,9 +5761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5845,7 +5769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5856,7 +5780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5865,7 +5789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5877,7 +5801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5885,7 +5809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5981,7 +5905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6024,7 +5948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6327,7 +6251,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150564</v>
+        <v>20150557</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6351,7 +6275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6367,7 +6291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6383,7 +6307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6399,7 +6323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6415,7 +6339,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6430,9 +6354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6440,7 +6362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6451,7 +6373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6460,7 +6382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6472,7 +6394,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6480,7 +6402,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6576,7 +6498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6619,7 +6541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6922,7 +6844,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150572</v>
+        <v>20150563</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6946,7 +6868,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6962,7 +6884,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6978,7 +6900,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6994,7 +6916,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7010,7 +6932,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7025,9 +6947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7035,7 +6955,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7046,7 +6966,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7055,7 +6975,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7067,7 +6987,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7075,7 +6995,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7171,7 +7091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7198,7 +7118,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7214,7 +7134,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7465,7 +7385,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7515,7 +7437,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154385</v>
+        <v>20150562</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7539,7 +7461,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7555,7 +7477,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7570,7 +7492,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7584,7 +7508,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7598,7 +7524,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7619,7 +7547,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7628,14 +7558,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7645,13 +7579,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7746,7 +7684,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7772,7 +7710,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7786,7 +7726,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8191,9 +8133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8201,7 +8141,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8212,7 +8152,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8221,7 +8161,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8233,7 +8173,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8337,7 +8277,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8380,7 +8320,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8683,7 +8623,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150544</v>
+        <v>20150558</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8707,7 +8647,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8723,7 +8663,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8739,7 +8679,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8755,7 +8695,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8770,7 +8710,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8784,9 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8794,7 +8734,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8805,7 +8745,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8814,7 +8754,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8826,7 +8766,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8834,7 +8774,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8930,7 +8870,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8973,7 +8913,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9276,7 +9216,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150557</v>
+        <v>20150566</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9300,7 +9240,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9316,7 +9256,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9332,7 +9272,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9348,7 +9288,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9364,7 +9304,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9379,9 +9319,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9389,7 +9327,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9400,7 +9338,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9409,7 +9347,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9421,7 +9359,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9429,7 +9367,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9525,7 +9463,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9552,7 +9490,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9568,7 +9506,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9871,7 +9809,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150563</v>
+        <v>20150567</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9895,7 +9833,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9911,7 +9849,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9927,7 +9865,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9943,7 +9881,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9959,7 +9897,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9974,9 +9912,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9984,7 +9920,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9995,7 +9931,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10004,7 +9940,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10016,15 +9952,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>191</v>
+      <c r="H17" s="20">
+        <v>3850989</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10120,7 +10056,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10147,7 +10083,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10163,7 +10099,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10466,7 +10402,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150562</v>
+        <v>20150549</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10490,7 +10426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10506,7 +10442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10522,7 +10458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10538,7 +10474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10554,7 +10490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10569,9 +10505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10579,7 +10513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10590,7 +10524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10599,7 +10533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10611,7 +10545,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10619,7 +10553,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10715,7 +10649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10742,7 +10676,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10758,7 +10692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11061,7 +10995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150558</v>
+        <v>20150560</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11085,7 +11019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11101,7 +11035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11117,7 +11051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11133,7 +11067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11149,7 +11083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11164,9 +11098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11174,7 +11106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11185,7 +11117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11194,7 +11126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11206,15 +11138,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>205</v>
+      <c r="H17" s="20">
+        <v>39786317</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11310,7 +11242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11337,7 +11269,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11353,7 +11285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11656,7 +11588,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150566</v>
+        <v>20150559</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11680,7 +11612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11696,7 +11628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11712,7 +11644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11728,7 +11660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11744,7 +11676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11759,9 +11691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11769,7 +11699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11780,7 +11710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11789,7 +11719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11801,7 +11731,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11809,7 +11739,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11905,7 +11835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11948,7 +11878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12251,7 +12181,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150567</v>
+        <v>20150546</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12275,7 +12205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12291,7 +12221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12307,7 +12237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12323,7 +12253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12339,7 +12269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12354,9 +12284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>221</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12364,7 +12292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12375,7 +12303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12384,7 +12312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12396,15 +12324,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3850989</v>
+      <c r="H17" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12500,7 +12428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12543,7 +12471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12846,7 +12774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150549</v>
+        <v>20150565</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12870,7 +12798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12886,7 +12814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12902,7 +12830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12918,7 +12846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12934,7 +12862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12949,9 +12877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>229</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12959,7 +12885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12970,7 +12896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12979,7 +12905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12991,7 +12917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12999,7 +12925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13095,7 +13021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13122,7 +13048,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13138,7 +13064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13441,7 +13367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150560</v>
+        <v>20150570</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13465,7 +13391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13481,7 +13407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13497,7 +13423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13513,7 +13439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13529,7 +13455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13544,9 +13470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>238</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13554,7 +13478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13565,7 +13489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13574,7 +13498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13586,15 +13510,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>39786317</v>
+      <c r="H17" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13690,7 +13614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13733,7 +13657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14036,7 +13960,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150559</v>
+        <v>20150548</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14060,7 +13984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14076,7 +14000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14092,7 +14016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14108,7 +14032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14124,7 +14048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14139,9 +14063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14149,7 +14071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14160,7 +14082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14169,7 +14091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14181,7 +14103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14189,7 +14111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14285,7 +14207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14312,7 +14234,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14328,7 +14250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14655,7 +14577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14671,7 +14593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14687,7 +14609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14703,7 +14625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14719,7 +14641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14734,9 +14656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14744,7 +14664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14755,7 +14675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14764,7 +14684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14776,7 +14696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14784,7 +14704,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14880,7 +14800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14923,7 +14843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15174,7 +15094,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15224,7 +15146,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154812</v>
+        <v>20150553</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15248,7 +15170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15264,7 +15186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15279,7 +15201,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15293,7 +15217,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15307,7 +15233,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15328,7 +15256,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15337,14 +15267,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15354,13 +15288,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>701016129361</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15455,7 +15393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15481,7 +15419,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15495,7 +15435,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15797,7 +15739,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150546</v>
+        <v>20150571</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15821,7 +15763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15837,7 +15779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15853,7 +15795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15869,7 +15811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15885,7 +15827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15900,9 +15842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15910,7 +15850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15921,7 +15861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15930,7 +15870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15942,7 +15882,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15950,7 +15890,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16046,7 +15986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16073,7 +16013,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16089,7 +16029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16292,3552 +16232,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150565</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150570</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154819</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150548</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150553</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>701016129361</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150571</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2010</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -19861,7 +16255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20018,7 +16412,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20034,7 +16428,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20050,7 +16444,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20066,7 +16460,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20082,7 +16476,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20097,9 +16491,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20107,7 +16499,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20118,7 +16510,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20127,7 +16519,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20139,7 +16531,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20147,7 +16539,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20243,7 +16635,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20286,7 +16678,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20537,7 +16929,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20587,7 +16981,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154388</v>
+        <v>20150551</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20611,7 +17005,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20627,7 +17021,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20642,7 +17036,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20656,7 +17052,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20670,7 +17068,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20691,7 +17091,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20700,14 +17102,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20717,13 +17123,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20818,7 +17228,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20844,7 +17254,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20858,7 +17270,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -21160,7 +17574,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150551</v>
+        <v>20150554</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21184,7 +17598,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21200,7 +17614,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21216,7 +17630,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21232,7 +17646,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21248,7 +17662,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21263,9 +17677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21273,7 +17685,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21284,7 +17696,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21293,7 +17705,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21305,7 +17717,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21313,7 +17725,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21409,7 +17821,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21436,7 +17848,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21452,7 +17864,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21703,7 +18115,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -21753,7 +18167,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154830</v>
+        <v>20150545</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21777,7 +18191,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21793,7 +18207,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21808,7 +18222,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -21822,7 +18238,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -21836,7 +18254,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -21857,7 +18277,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -21866,14 +18288,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -21883,13 +18309,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -21984,7 +18414,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22010,7 +18440,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2008</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -22024,7 +18456,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -22326,7 +18760,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150554</v>
+        <v>20150561</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22350,7 +18784,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22366,7 +18800,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22382,7 +18816,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22398,7 +18832,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22414,7 +18848,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22429,9 +18863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22439,7 +18871,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22450,7 +18882,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22459,7 +18891,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22471,7 +18903,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22479,7 +18911,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22575,7 +19007,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22602,7 +19034,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22618,7 +19050,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22921,7 +19353,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150545</v>
+        <v>20150556</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22945,7 +19377,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22961,7 +19393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22977,7 +19409,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22993,7 +19425,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23009,7 +19441,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23024,9 +19456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23034,7 +19464,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23045,7 +19475,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23054,7 +19484,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23066,15 +19496,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>99</v>
+      <c r="H17" s="20">
+        <v>388811</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23170,7 +19600,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23197,7 +19627,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23213,7 +19643,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
